--- a/biology/Histoire de la zoologie et de la botanique/Edward_James_Salisbury/Edward_James_Salisbury.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_James_Salisbury/Edward_James_Salisbury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward James Salisbury est un botaniste britannique, né le 16 avril 1886 à Harpenden et mort le 10 novembre 1978 à Bognor Regis dans le Sussex de l'Ouest.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de James Wright Salisbury et de Elizabeth née Stimpson. Il obtient un Bachelor of Sciences à l’University College de Londres en 1909 et son Doctorat of Sciences en 1913.
 Salisbury travaille à l’University College de 1918 à 1943. Il se marie avec Mabel Elwin-Coles en 1918, celle-ci décèdera en décembre 1956. Il est fait quain professor de botanique en 1929, fonction qu’il conserve jusqu’en 1943.
@@ -546,25 +560,27 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Salisbury, E.J. (1916) The emergence of the aerial organs in woodland plants. Journal of Ecology 4 (3-4): 121-128. [1]
-Salisbury, E.J. (1920) The significance of the calcicolous habit. Journal of Ecology 8 (1): 202-215. [2]
-Salisbury, E.J. (1922) Stratification and Hydrogen-ion concentration of the soil in relation to leaching and plant succession with special reference to woodlands. Journal of Ecology 9 (2): 220-240. [3]
-Salisbury, E.J. (1925) The incidence of species in relation to soil reaction. Journal of Ecology 13 (1): 149-160. [4]
-Salisbury, E.J. (1925) Note on the edaphic succession in some dune soils with special reference to the time factor. Journal of Ecology 13 (2): 322-328. [5]
-Salisbury, E.J. (1925) Note on the edaphic succession in some dune soils with special reference to the time factor. Journal of Ecology 13 (2): 322-328. [6]
-Salisbury, E.J. (1926) The geographical distribution of plants in relation to climatic factors. The Geographical Journal 67 (4): 312-335. [7]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury, E.J. (1916) The emergence of the aerial organs in woodland plants. Journal of Ecology 4 (3-4): 121-128. 
+Salisbury, E.J. (1920) The significance of the calcicolous habit. Journal of Ecology 8 (1): 202-215. 
+Salisbury, E.J. (1922) Stratification and Hydrogen-ion concentration of the soil in relation to leaching and plant succession with special reference to woodlands. Journal of Ecology 9 (2): 220-240. 
+Salisbury, E.J. (1925) The incidence of species in relation to soil reaction. Journal of Ecology 13 (1): 149-160. 
+Salisbury, E.J. (1925) Note on the edaphic succession in some dune soils with special reference to the time factor. Journal of Ecology 13 (2): 322-328. 
+Salisbury, E.J. (1925) Note on the edaphic succession in some dune soils with special reference to the time factor. Journal of Ecology 13 (2): 322-328. 
+Salisbury, E.J. (1926) The geographical distribution of plants in relation to climatic factors. The Geographical Journal 67 (4): 312-335. 
 Discussion aux p. 335–342 de H. N. Ridley a.o.
-Salisbury, E.J. (1927) On the causes and ecological significance of stomatal frequency with special reference to woodland flora. Phil. Trans. R. Soc. B 216 (1928): 1-65. [8]
-Salisbury, E.J. (1929) The biological equipment of species in relation to competition. Journal of Ecology 17 (2): 197-222. [9]
+Salisbury, E.J. (1927) On the causes and ecological significance of stomatal frequency with special reference to woodland flora. Phil. Trans. R. Soc. B 216 (1928): 1-65. 
+Salisbury, E.J. (1929) The biological equipment of species in relation to competition. Journal of Ecology 17 (2): 197-222. 
 Salisbury, E.J. (1930) Mortality amongst plants and its bearing on natural selection. Nature 125 : 817.
 Commentaire de Ronald A. Fisher (1930) dans Nature, 125: 972-973.
 Réplique de Salisbury dans Nature, 126: 95-96.
-Salisbury, E.J. (1971) The pioneer vegetation of exposed muds and its biological features. Phil. Trans. R. Soc. B 259 : 207-255. [10]
-Salisbury, E. (1974) Seed size and mass in relation to environment. Proceedings of the Royal Society of London Series B: Biological Sciences 186 (1083): 83-88. [11]
-Salisbury, E. (1975) The survival value of modes of dispersal. Proceedings of the Royal Society of London Series B: Biological Sciences 188 (1091): 183-188. [12]
-Salisbury, E. (1976) Seed output and the efficacy of dispersal by wind. Proceedings of the Royal Society of London Series B: Biological Sciences 192 (1108): 323-329. [13]</t>
+Salisbury, E.J. (1971) The pioneer vegetation of exposed muds and its biological features. Phil. Trans. R. Soc. B 259 : 207-255. 
+Salisbury, E. (1974) Seed size and mass in relation to environment. Proceedings of the Royal Society of London Series B: Biological Sciences 186 (1083): 83-88. 
+Salisbury, E. (1975) The survival value of modes of dispersal. Proceedings of the Royal Society of London Series B: Biological Sciences 188 (1091): 183-188. 
+Salisbury, E. (1976) Seed output and the efficacy of dispersal by wind. Proceedings of the Royal Society of London Series B: Biological Sciences 192 (1108): 323-329. </t>
         </is>
       </c>
     </row>
